--- a/history_last_session.xlsx
+++ b/history_last_session.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,68 +474,56 @@
           <t>Bubble</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cellushape</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Last name</t>
+          <t>Soto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First name</t>
+          <t>Janice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>6177840081</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>janicesoto777@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>last session</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contract expiration</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Bubble</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>cellushape</t>
-        </is>
+          <t>05/05/2026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Levin</t>
+          <t>Alivis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lubov</t>
+          <t>Giselia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -544,37 +532,30 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>lubov@smartifymedia.com</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>06/27/2025</t>
+          <t>07/16/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>09/20/2025</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>162</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mulman</t>
+          <t>Shein</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kelsy</t>
+          <t>Cheray</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -584,38 +565,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(410) 409-1764</t>
+          <t>(617) 640-4890</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kelsysaltzberg@gmail.com</t>
+          <t>cherays@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>08/29/2025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>163</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shein</t>
+          <t>Vyadro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cheray</t>
+          <t>Inna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -625,38 +605,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(617) 640-4890</t>
+          <t>9782395532</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>cherays@gmail.com</t>
+          <t>ivyadro@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08/29/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>161</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Soto</t>
+          <t>Perez Capotosto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Janice</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -666,17 +645,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6177840081</t>
+          <t>(978) 855-2180</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>janicesoto777@gmail.com</t>
+          <t>melissa.k.perez@gmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -685,19 +664,18 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>168</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Munn</t>
+          <t>Tsepkova</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessie</t>
+          <t>Tatiana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -707,38 +685,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(617) 435-7802</t>
+          <t>6175921186</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>jessie.munn@comcast.net</t>
+          <t>tsepkovat@gmail.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>La Valle</t>
+          <t>Mulman</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Kelsy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -748,38 +725,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6175939907</t>
+          <t>(410) 409-1764</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>jdestino71@aol.com</t>
+          <t>kelsysaltzberg@gmail.com</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/09/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gabechiia</t>
+          <t>Corr</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Irina</t>
+          <t>Beth</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,17 +765,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+1 (617) 319-1544</t>
+          <t>6178343194</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Irina.gabechiia@gmail.com</t>
+          <t>wagtailfarm@aol.com</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -808,19 +784,18 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Volkovich</t>
+          <t>Ploussios</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -830,38 +805,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(734) 945-5290</t>
+          <t>(617) 283-2492</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>jvkotlyar@gmail.com</t>
+          <t>Kpcoller@yahoo.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>06/29/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>168</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Connolly</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Stacy</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,38 +845,37 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(585) 415-7746</t>
+          <t>8576360552</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Drnicoleford@gmail.com</t>
+          <t>hiddenjewelsE@gmail.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>07/10/2026</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>103</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Feldman</t>
+          <t>Silva</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -912,17 +885,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6173884292</t>
+          <t>(617) 833-5361</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>jpffeldman@gmail.com</t>
+          <t>rosem.silva.rs@gmail.com</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -931,19 +904,18 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>62</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spivak</t>
+          <t>Munn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Raya</t>
+          <t>Jessie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -953,38 +925,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(617) 899-7858</t>
+          <t>(617) 435-7802</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>rayaspivak@msn.com</t>
+          <t>jessie.munn@comcast.net</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/12/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>80</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bukur-Doczy</t>
+          <t>LaGana</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Krisztina</t>
+          <t>Ellen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -994,38 +965,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+1 774 281 0331</t>
+          <t>(617) 981-5610</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>krisztina@newtonpediatrics.com</t>
+          <t>Ellenmlagana@gmail.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>110</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Megrian</t>
+          <t>Feldman</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1035,17 +1005,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(574) 370-5077</t>
+          <t>6173884292</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>katielstevens@gmail.com</t>
+          <t>jpffeldman@gmail.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1054,19 +1024,18 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hanono Wachman</t>
+          <t>Kipreos</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Silvina</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1076,38 +1045,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(617) 413-7177</t>
+          <t>(540) 841-7157</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Silvinahw@gmail.com</t>
+          <t>pkipreos267@gmail.com</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>102</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pal</t>
+          <t>Shpigel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Neela</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1117,38 +1085,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(617)869-6246</t>
+          <t>(617) 308-8566</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>neelarpal@gmail.com</t>
+          <t>blumkinlaw@yahoo.com</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>08/01/2026</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Botta</t>
+          <t>Frydman</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ginevra</t>
+          <t>Yael</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1158,17 +1125,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(617)938-7992</t>
+          <t>6178035498</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gin.botta@gmail.com</t>
+          <t>y_frydman@yahoo.com</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1177,19 +1144,18 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>20</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Matov</t>
+          <t>Kogan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Olena</t>
+          <t>Anya</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1199,38 +1165,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(617) 818-5931</t>
+          <t>(617) 283-4952</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lenamatov@gmail.com</t>
+          <t>anyakogan@gmail.com</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Antebi Hadar</t>
+          <t>starr</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ronit</t>
+          <t>kimmy</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1240,38 +1205,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(617)784-0397</t>
+          <t>(617) 699-9332</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ronitantebi@hotmail.com</t>
+          <t>kimberly.t.starr@gmail.com</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/08/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Levin</t>
+          <t>Laden</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Luba</t>
+          <t>Francine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1279,15 +1243,19 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(617) 571-2189</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>lubov@smartifymedia.com</t>
+          <t>francine.laden@gmail.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1296,19 +1264,18 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>156</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gurevich</t>
+          <t>Lanciloti</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1318,38 +1285,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(617) 270-5470</t>
+          <t>(617) 965-4220  (617) 908-6141?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mgurevich9@gmail.com</t>
+          <t>dhlanciloti@gmail.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/30/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>137</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LeBlanc</t>
+          <t>Vallila</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hallie</t>
+          <t>Kristine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1359,38 +1325,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(617) 872-3369</t>
+          <t>(617) 301-2752</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>halliekayleblanc@gmail.com</t>
+          <t>mykristine@gmail.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>08/21/2026</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jain</t>
+          <t>LeBlanc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Priya</t>
+          <t>Hallie</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1400,17 +1365,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(617)319-9174</t>
+          <t>(617) 872-3369</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>priyajain20@gmail.com</t>
+          <t>halliekayleblanc@gmail.com</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1419,19 +1384,18 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>19</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>McCarthy</t>
+          <t>Ding</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Maggie</t>
+          <t>June</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1441,17 +1405,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(201) 925-6950</t>
+          <t>6174857873</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>maggiemccarthy426@gmail.com</t>
+          <t>mfaa.juneding@gmail.com</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1460,19 +1424,18 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>73</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ding</t>
+          <t>Pogorelec</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1482,17 +1445,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6174857873</t>
+          <t>(617) 697-4318</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>mfaa.juneding@gmail.com</t>
+          <t>aspogorelec@yahoo.com</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1501,19 +1464,18 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>79</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sharav Zalkind</t>
+          <t>Bain</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Karin</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1523,38 +1485,37 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(617) 838-6665</t>
+          <t>(617) 306-3536</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>karin@noboxstudio.com</t>
+          <t>emilymso@gmail.com</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/09/2026</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>88</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bain</t>
+          <t>Gardner</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Elizabeth</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1564,38 +1525,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(617) 306-3536</t>
+          <t>(617) 312-6098</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>emilymso@gmail.com</t>
+          <t>elizabethobgardner@yahoo.com</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/09/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>127</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kirshenbaum</t>
+          <t>Nemetz</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kathryn</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1605,17 +1565,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(617) 650-7290</t>
+          <t>(774) 257-2272</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>kkirsh@denenberg.com</t>
+          <t>sue.kirshenbaum@gmail.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1624,19 +1584,18 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>68</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aejaz</t>
+          <t>Kirshenbaum</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Henna</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1646,17 +1605,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2486354677</t>
+          <t>(617) 650-7290</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>henna.kermani@gmail.com</t>
+          <t>kkirsh@denenberg.com</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1665,19 +1624,18 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>27</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bedikian</t>
+          <t>Simons</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Jamie</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1687,17 +1645,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6177569686</t>
+          <t>617-947-5919</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>milkainfo@gmail.com</t>
+          <t>jaimebsimons@gmail.com</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1706,19 +1664,18 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>41</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Theodorou</t>
+          <t>Delcroix</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1728,34 +1685,37 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6174476382  6174476382</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>(617) 595-5882</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ogrinis@yahoo.com</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/08/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>82</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>Theodorou</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1765,38 +1725,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5082696761</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>c.dana1125@gmail.com</t>
-        </is>
-      </c>
+          <t>6174476382  6174476382</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/08/2026</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>28</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Barbalat</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Yana</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1806,34 +1761,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(732)233-4386</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>5082696761</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>c.dana1125@gmail.com</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/08/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>17</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Swyers</t>
+          <t>Barbalat</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Yana</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1843,13 +1801,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(781)866-1774</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>(732)233-4386</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>yanabarbalat@gmail.com</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1858,19 +1820,18 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>28</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Barbalat</t>
+          <t>Swyers</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1878,32 +1839,35 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>(781)866-1774</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>05/08/2026</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>29</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chaichueathip</t>
+          <t>Alvis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sangthip</t>
+          <t>Giselia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1911,40 +1875,31 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>+19294563289</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>sangwealthy@icloud.com</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>07/18/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/18/2025</t>
+          <t>09/20/2025</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>17</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Vyadro</t>
+          <t>Doucette</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Inna</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1952,40 +1907,31 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>9782395532</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ivyadro@gmail.com</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/12/2026</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>164</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sokol</t>
+          <t>Barbalat</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Alisa</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1993,40 +1939,31 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>(617) 759-4201</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sokolalisa@gmail.com</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>29</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kasparova</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Olga</t>
+          <t>Tricia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2036,38 +1973,37 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6178990524</t>
+          <t>(617)990-4350</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>okasparova@gmail.com</t>
+          <t>tricia.tyler@comcast.net</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>10/08/2025</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>55</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kagan</t>
+          <t>Pleskow</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Olga</t>
+          <t>Heather</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2077,38 +2013,33 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6176408092</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>olga_kagan@yahoo.com</t>
-        </is>
-      </c>
+          <t>(339-225-1333)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>12/04/2025</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>67</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Goldman</t>
+          <t>Kahana</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Danisha</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2118,38 +2049,37 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+1 (617) 694-3539</t>
+          <t>6178930767</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>danisha.star@gmail.com</t>
+          <t>s.kahana34@gmail.com</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>39</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Veksler</t>
+          <t>Volkovich</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lilia</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2159,38 +2089,37 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7819292281</t>
+          <t>(734) 945-5290</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>lveksler@yahoo.com</t>
+          <t>jvkotlyar@gmail.com</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>06/29/2026</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>19</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Blumberg</t>
+          <t>Magovcevic-Liebisch</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Ivana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2200,38 +2129,37 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(617) 803-2893</t>
+          <t>(617) 669-3697</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>kblumbergpt@gmail.com</t>
+          <t>ivanaliebisch@gmail.com</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>87</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Collazo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jessica (Cici)</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2239,36 +2167,39 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>(617) 599-7207</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>jsnjackson@hotmail.com</t>
+          <t>Collazo.diana@comcast.net</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/25/2026</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lanciloti</t>
+          <t>Antebi Hadar</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Ronit</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2278,38 +2209,37 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(617) 965-4220  (617) 908-6141?</t>
+          <t>(617)784-0397</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>dhlanciloti@gmail.com</t>
+          <t>ronitantebi@hotmail.com</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/08/2026</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>42</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Johnston</t>
+          <t>Velez</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Suzanne</t>
+          <t>Alexandra</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2319,17 +2249,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(617) 908-6647</t>
+          <t>(787) 616-8384</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sanddjohnston@gmail.com</t>
+          <t>velezalexandra@hotmail.com</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2338,19 +2268,18 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>104</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lazzeri</t>
+          <t>Flynn</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Francesca</t>
+          <t>Lindsay</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2360,38 +2289,33 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(781) 504-2370</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Francescalazzeri@gmail.com</t>
-        </is>
-      </c>
+          <t>2024978877</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>10/09/2025</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>27</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Suckerman</t>
+          <t>Ganguly</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Stacey</t>
+          <t>Shree</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2401,38 +2325,37 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(617) 504-5901</t>
+          <t>8659247031</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Staceysuckerman@yahoo.com</t>
+          <t>shree24@gmail.com</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mensoian</t>
+          <t>Speranza</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Martha</t>
+          <t>Marica</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2442,38 +2365,37 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6179703737</t>
+          <t>7814678811</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>martha@hustlestop.com</t>
+          <t>mrc.speranza@gmail.com</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/25/2026</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>24</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sky Babushkina</t>
+          <t>rogers</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>janice</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2483,71 +2405,77 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+17819298077</t>
+          <t>6175908259</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>natbabushkina@gmail.com</t>
+          <t>jrogersnewton@gmail.com</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/25/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>31</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gardner</t>
+          <t>Kagan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Annabelle</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Try</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6176408092</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>olga_kagan@yahoo.com</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>07/17/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/31/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Conley</t>
+          <t>Spivak</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jenn</t>
+          <t>Raya</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2557,38 +2485,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(617) 939-7364</t>
+          <t>(617) 899-7858</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jennifer@gooddeedsllc.com</t>
+          <t>rayaspivak@msn.com</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/10/2026</t>
+          <t>06/12/2026</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>163</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Perez Capotosto</t>
+          <t>Bukur-Doczy</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Krisztina</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2598,17 +2525,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(978) 855-2180</t>
+          <t>+1 774 281 0331</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>melissa.k.perez@gmail.com</t>
+          <t>krisztina@newtonpediatrics.com</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2617,19 +2544,18 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>23</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tsepkova</t>
+          <t>Fynn-thompson</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tatiana</t>
+          <t>Nicoletta</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2639,17 +2565,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6175921186</t>
+          <t>+1 (857) 891-7637</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>tsepkovat@gmail.com</t>
+          <t>nfynnthompson@hotmail.com</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2658,19 +2584,18 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Corr</t>
+          <t>Veksler</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Beth</t>
+          <t>Lilia</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2680,38 +2605,37 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6178343194</t>
+          <t>7819292281</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>wagtailfarm@aol.com</t>
+          <t>lveksler@yahoo.com</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>21</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Connolly</t>
+          <t>Botta</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Stacy</t>
+          <t>Ginevra</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2721,38 +2645,37 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8576360552</t>
+          <t>(617)938-7992</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>hiddenjewelsE@gmail.com</t>
+          <t>gin.botta@gmail.com</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/10/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>190</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Levin</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Luba</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2760,19 +2683,15 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>(617) 833-5361</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>rosem.silva.rs@gmail.com</t>
+          <t>lubov@smartifymedia.com</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2781,19 +2700,18 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>69</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LaGana</t>
+          <t>McCarthy</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ellen</t>
+          <t>Maggie</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2803,38 +2721,37 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(617) 981-5610</t>
+          <t>(201) 925-6950</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ellenmlagana@gmail.com</t>
+          <t>maggiemccarthy426@gmail.com</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>49</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kipreos</t>
+          <t>Suckerman</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2844,17 +2761,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(540) 841-7157</t>
+          <t>(617) 504-5901</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>pkipreos267@gmail.com</t>
+          <t>Staceysuckerman@yahoo.com</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2863,19 +2780,18 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>105</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Agamov</t>
+          <t>Sharav Zalkind</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Alla</t>
+          <t>Karin</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2885,17 +2801,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(617) 803-8601</t>
+          <t>(617) 838-6665</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>welovebrt@gmail.com</t>
+          <t>karin@noboxstudio.com</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>08/01/2025</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2904,19 +2820,18 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>32</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bernardini</t>
+          <t>Conley</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Donatella</t>
+          <t>Jenn</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2926,38 +2841,37 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6175293236</t>
+          <t>(617) 939-7364</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>dabitalia@yahoo.com</t>
+          <t>Jennifer@gooddeedsllc.com</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/05/2026</t>
+          <t>07/24/2026</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>152</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Frydman</t>
+          <t>Higgins</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Yael</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2967,17 +2881,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6178035498</t>
+          <t>(508) 566-1279</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>y_frydman@yahoo.com</t>
+          <t>Emgordon7@yahoo.com</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2986,19 +2900,18 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>34</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kogan</t>
+          <t>Agamov</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Anya</t>
+          <t>Alla</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3008,38 +2921,37 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(617) 283-4952</t>
+          <t>(617) 803-8601</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>anyakogan@gmail.com</t>
+          <t>welovebrt@gmail.com</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>14</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>starr</t>
+          <t>Megrian</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>kimmy</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3049,17 +2961,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(617) 699-9332</t>
+          <t>(574) 370-5077</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>kimberly.t.starr@gmail.com</t>
+          <t>katielstevens@gmail.com</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3068,19 +2980,18 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>26</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SHAHAL-SCHIFFER</t>
+          <t>Hanono Wachman</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAERAV</t>
+          <t>Silvina</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3090,38 +3001,37 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(857) 919-3518</t>
+          <t>(617) 413-7177</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>shahalschiffer@gmail.com</t>
+          <t>Silvinahw@gmail.com</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>100</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gardner</t>
+          <t>Blumberg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Kate</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3131,17 +3041,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(617) 312-6098</t>
+          <t>(617) 803-2893</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>elizabethobgardner@yahoo.com</t>
+          <t>kblumbergpt@gmail.com</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3150,19 +3060,18 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>10</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Velez</t>
+          <t>Lazzeri</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Alexandra</t>
+          <t>Francesca</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3172,17 +3081,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(787) 616-8384</t>
+          <t>(781) 504-2370</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>velezalexandra@hotmail.com</t>
+          <t>Francescalazzeri@gmail.com</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3191,19 +3100,18 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>9</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Demartini</t>
+          <t>Yablonovsky</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Lina</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3213,13 +3121,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(617)818-1292</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>6178284656  6178284656</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>linayk7@yahoo.com</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3228,19 +3140,18 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>26</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Simons</t>
+          <t>Germand</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3250,17 +3161,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>617-947-5919</t>
+          <t>6176998086  6176998086</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>jaimebsimons@gmail.com</t>
+          <t>hlg211@gmail.com</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3269,19 +3180,18 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>69</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Alivis</t>
+          <t>Conviser</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Giselia</t>
+          <t>Holly</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3289,32 +3199,39 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>(617) 285-5061</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>haconviser@gmail.com</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/20/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>59</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Doucette</t>
+          <t>Demartini</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3322,106 +3239,103 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>(617)818-1292</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05/12/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>79</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lanciloti</t>
+          <t>Gardner</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Violet</t>
+          <t>Annabelle</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05/23/2026</t>
+          <t>07/29/2026</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tyler</t>
+          <t>Hadar</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tricia</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(617)990-4350</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>tricia.tyler@comcast.net</t>
-        </is>
-      </c>
+          <t>(857) 222-9612?</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/08/2025</t>
+          <t>07/19/2026</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>38</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Flynn</t>
+          <t>Hamm</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lindsay</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3431,34 +3345,37 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024978877</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>4157135678</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>wendymhamm@gmail.com</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>07/16/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/09/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>29</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lavin</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Claudia</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3468,38 +3385,37 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6179535629</t>
+          <t>(585) 415-7746</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>claudialavin@hotmail.com</t>
+          <t>Drnicoleford@gmail.com</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>07/15/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/09/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>194</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Magovcevic-Liebisch</t>
+          <t>Bernardini</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ivana</t>
+          <t>Donatella</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3509,38 +3425,37 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(617) 669-3697</t>
+          <t>6175293236</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ivanaliebisch@gmail.com</t>
+          <t>dabitalia@yahoo.com</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>07/15/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>06/05/2026</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>91</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mirafzali</t>
+          <t>Matov</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mohammed</t>
+          <t>Olena</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3548,11 +3463,19 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>(617) 818-5931</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lenamatov@gmail.com</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>07/15/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3561,19 +3484,18 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>67</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nemetz</t>
+          <t>Swartz</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3583,28 +3505,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(774) 257-2272</t>
+          <t>?(617) 838-1489?  (617) 838-1489</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sue.kirshenbaum@gmail.com</t>
+          <t>es@swartzfamily.com</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>07/15/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/10/2026</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>54</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3634,7 +3555,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>07/15/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3643,19 +3564,18 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>94</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ploussios</t>
+          <t>Chaichueathip</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kate</t>
+          <t>Sangthip</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3665,38 +3585,37 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(617) 283-2492</t>
+          <t>+19294563289</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kpcoller@yahoo.com</t>
+          <t>sangwealthy@icloud.com</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/30/2025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>08/18/2025</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>67</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Rosen</t>
+          <t>Kasparova</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Yael</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3706,28 +3625,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6176451040</t>
+          <t>6178990524</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Yayarosen9@gmail.com</t>
+          <t>okasparova@gmail.com</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/29/2025</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07/01/2028</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>25</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3757,7 +3675,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/29/2025</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3766,19 +3684,18 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>48</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Laden</t>
+          <t>Goldman</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Francine</t>
+          <t>Danisha</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3788,17 +3705,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(617) 571-2189</t>
+          <t>+1 (617) 694-3539</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>francine.laden@gmail.com</t>
+          <t>danisha.star@gmail.com</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/29/2025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3807,19 +3724,18 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>19</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Yablonovsky</t>
+          <t>Mirafzali</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>Mohammed</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3827,19 +3743,11 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>6178284656  6178284656</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>linayk7@yahoo.com</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/29/2025</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3848,19 +3756,18 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>10</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Germand</t>
+          <t>SHAHAL-SCHIFFER</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>MAERAV</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3870,17 +3777,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6176998086  6176998086</t>
+          <t>(857) 919-3518</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>hlg211@gmail.com</t>
+          <t>shahalschiffer@gmail.com</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/28/2025</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3889,19 +3796,18 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>11</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Fidel</t>
+          <t>Bedikian</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sephanie</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3911,17 +3817,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>+1 (617) 480-0903</t>
+          <t>6177569686</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SFIDEL@IMSEARCH.COM</t>
+          <t>milkainfo@gmail.com</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/28/2025</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3930,60 +3836,58 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>20</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Morson</t>
+          <t>Magnone</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Maria Chiara</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6175169019</t>
+          <t>617473052</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>jessicaamorson@gmail.com</t>
+          <t>magnonem2004@yahoo.it</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>07/26/2025</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/31/2025</t>
+          <t>06/30/2026</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Higgins</t>
+          <t>Snyder</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Kathleen</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3993,17 +3897,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>(508) 566-1279</t>
+          <t>6172304576</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Emgordon7@yahoo.com</t>
+          <t>snyderkathleen@yahoo.com</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4012,19 +3916,18 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>49</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Collazo</t>
+          <t>Livshits</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Marina</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4034,38 +3937,37 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(617) 599-7207</t>
+          <t>(617) 331-7203</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Collazo.diana@comcast.net</t>
+          <t>ml.psyd@gmail.com</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06/25/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>29</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Shpigel</t>
+          <t>Fidel</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Sephanie</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4075,38 +3977,37 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>(617) 308-8566</t>
+          <t>+1 (617) 480-0903</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>blumkinlaw@yahoo.com</t>
+          <t>SFIDEL@IMSEARCH.COM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>18</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hamm</t>
+          <t>Jain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Priya</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4116,17 +4017,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4157135678</t>
+          <t>(617)319-9174</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>wendymhamm@gmail.com</t>
+          <t>priyajain20@gmail.com</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4135,19 +4036,18 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>55</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Perelman</t>
+          <t>Mensoian</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Eugenia</t>
+          <t>Martha</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4157,38 +4057,37 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>(617) 669-9396</t>
+          <t>6179703737</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>eperelman@gmail.com</t>
+          <t>martha@hustlestop.com</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/08/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Derr</t>
+          <t>Aejaz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Henna</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4198,17 +4097,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>(781) 799-9448</t>
+          <t>2486354677</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>emilyjderr@gmail.com</t>
+          <t>henna.kermani@gmail.com</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4217,60 +4116,50 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>17</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Snyder</t>
+          <t>Lanciloti</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kathleen</t>
+          <t>Violet</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Current client</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6172304576</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>snyderkathleen@yahoo.com</t>
-        </is>
-      </c>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/25/2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/23/2026</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>19</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Alvarez-Diez</t>
+          <t>Gabechiia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Irina</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4280,17 +4169,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>(781) 266-7578</t>
+          <t>+1 (617) 319-1544</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>teresa.alvarezdiez@gmail.com</t>
+          <t>Irina.gabechiia@gmail.com</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/24/2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4299,19 +4188,18 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>41</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dudochkin</t>
+          <t>Berenson</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Yelena</t>
+          <t>Sheryl</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4321,13 +4209,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>9179299512  9179299512</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+          <t>5083976463</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>sjberenson@gmail.com</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/24/2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4336,19 +4228,18 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>45</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Berenson</t>
+          <t>Seth</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sheryl</t>
+          <t>Jessica (Cici)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4358,17 +4249,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5083976463</t>
+          <t>(617) 306-5121?</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sjberenson@gmail.com</t>
+          <t>jsnjackson@hotmail.com</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>07/24/2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4377,19 +4268,18 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>104</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Conviser</t>
+          <t>Gurevich</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Holly</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4399,79 +4289,77 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(617) 285-5061</t>
+          <t>(617) 270-5470</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>haconviser@gmail.com</t>
+          <t>Mgurevich9@gmail.com</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>07/10/2025</t>
+          <t>07/22/2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/30/2026</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>34</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>134</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Fynn-thompson</t>
+          <t>Morson</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nicoletta</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>+1 (857) 891-7637</t>
+          <t>6175169019</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>nfynnthompson@hotmail.com</t>
+          <t>jessicaamorson@gmail.com</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>07/21/2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>53</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Namiranian</t>
+          <t>Stifano</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mandana</t>
+          <t>Giuseppina</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4481,17 +4369,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>(312) 399-4392?</t>
+          <t>(646) 358-2698</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>mandananamiranian@yahoo.com</t>
+          <t>stifanog@gmail.com</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4500,19 +4388,18 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>32</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Koshnitsky</t>
+          <t>Johnston</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Natalya</t>
+          <t>Suzanne</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4520,11 +4407,19 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>(617) 908-6647</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Sanddjohnston@gmail.com</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4533,19 +4428,18 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Natapov</t>
+          <t>Namiranian</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Mandana</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4555,17 +4449,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>(781)883-7794</t>
+          <t>(312) 399-4392?</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>maria_natapov@yahoo.com</t>
+          <t>mandananamiranian@yahoo.com</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>07/08/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4574,19 +4468,18 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Eilam</t>
+          <t>La Valle</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Revital</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4596,79 +4489,77 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>(617) 686-8705</t>
+          <t>6175939907</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>revitaleilam@gmail.com</t>
+          <t>jdestino71@aol.com</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>07/18/2025</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>07/09/2026</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>38</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Liu</t>
+          <t>Pal</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Vivian</t>
+          <t>Neela</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6178422240</t>
+          <t>(617)869-6246</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>vliusomers@gmail.com</t>
+          <t>neelarpal@gmail.com</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>07/03/2025</t>
+          <t>07/18/2025</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/31/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>McDonald</t>
+          <t>Sokol</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Devon</t>
+          <t>Alisa</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4678,38 +4569,37 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>6039180218</t>
+          <t>(617) 759-4201</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>devwarwick@gmail.com</t>
+          <t>sokolalisa@gmail.com</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>07/17/2025</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>05/16/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>24</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bograd</t>
+          <t>Sky Babushkina</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4719,38 +4609,37 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>(617) 605-0533</t>
+          <t>+17819298077</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ashinkareva@hotmail.com</t>
+          <t>natbabushkina@gmail.com</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>07/17/2025</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/05/2026</t>
+          <t>08/25/2025</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>23</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Stifano</t>
+          <t>Lavin</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Giuseppina</t>
+          <t>Claudia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4760,38 +4649,37 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>(646) 358-2698</t>
+          <t>6179535629</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>stifanog@gmail.com</t>
+          <t>claudialavin@hotmail.com</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>07/15/2025</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>07/09/2026</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>18</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>194</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Rosen</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Anya</t>
+          <t>Yael</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4801,38 +4689,37 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>(617) 942-1332</t>
+          <t>6176451040</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>anyaptshops@gmail.com</t>
+          <t>Yayarosen9@gmail.com</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>07/14/2025</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>07/01/2028</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>180</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Delcroix</t>
+          <t>Perelman</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Olga</t>
+          <t>Eugenia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4842,38 +4729,37 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>(617) 595-5882</t>
+          <t>(617) 669-9396</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ogrinis@yahoo.com</t>
+          <t>eperelman@gmail.com</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/08/2026</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>82</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Magnone</t>
+          <t>Derr</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Maria Chiara</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4883,38 +4769,37 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>617473052</t>
+          <t>(781) 799-9448</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>magnonem2004@yahoo.it</t>
+          <t>emilyjderr@gmail.com</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>06/28/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/30/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Speranza</t>
+          <t>Alvarez-Diez</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Marica</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4924,38 +4809,37 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>7814678811</t>
+          <t>(781) 266-7578</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>mrc.speranza@gmail.com</t>
+          <t>teresa.alvarezdiez@gmail.com</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>06/27/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06/25/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>13</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Portnow</t>
+          <t>Dudochkin</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Beth</t>
+          <t>Yelena</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4965,17 +4849,13 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>6173317108  6173317108</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>bethportnow@aol.com</t>
-        </is>
-      </c>
+          <t>9179299512  9179299512</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>06/27/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4984,19 +4864,18 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>14</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sahbti</t>
+          <t>Koshnitsky</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Naomi</t>
+          <t>Natalya</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5004,40 +4883,31 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>(917) 288-0335</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Auerbachnomi@gmail.com</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>06/27/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/25/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Abramovitz</t>
+          <t>Natapov</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nily</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5047,17 +4917,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>(617) 803-6802</t>
+          <t>(781)883-7794</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>nilyab@gmail.com</t>
+          <t>maria_natapov@yahoo.com</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>06/26/2025</t>
+          <t>07/08/2025</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5066,19 +4936,18 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>20</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Swartz</t>
+          <t>Eilam</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Revital</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5088,79 +4957,77 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>?(617) 838-1489?  (617) 838-1489</t>
+          <t>(617) 686-8705</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>es@swartzfamily.com</t>
+          <t>revitaleilam@gmail.com</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>06/26/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/10/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>179</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Nest</t>
+          <t>Liu</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lindsey</t>
+          <t>Vivian</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>(949) 344-5239</t>
+          <t>6178422240</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>linzg22@gmail.com</t>
+          <t>vliusomers@gmail.com</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>06/25/2025</t>
+          <t>07/03/2025</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05/27/2026</t>
+          <t>07/31/2025</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>14</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Yurchenko</t>
+          <t>McDonald</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Olga</t>
+          <t>Devon</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5170,38 +5037,37 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>(617) 699-7912</t>
+          <t>6039180218</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ozilberberg@yahoo.com</t>
+          <t>devwarwick@gmail.com</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>06/24/2025</t>
+          <t>07/02/2025</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05/18/2026</t>
+          <t>05/16/2026</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>41</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sung</t>
+          <t>Bograd</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5211,38 +5077,37 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4158234624</t>
+          <t>(617) 605-0533</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>alisonbarbersung@gmail.com</t>
+          <t>ashinkareva@hotmail.com</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>06/24/2025</t>
+          <t>07/02/2025</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>09/01/2026</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>20</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rogers</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>janice</t>
+          <t>Anya</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5252,17 +5117,17 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>6175908259</t>
+          <t>(617) 942-1332</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>jrogersnewton@gmail.com</t>
+          <t>anyaptshops@gmail.com</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>06/18/2025</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5271,19 +5136,18 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>15</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Kantor</t>
+          <t>Portnow</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Beth</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5293,17 +5157,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>(413) 441-7007</t>
+          <t>6173317108  6173317108</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>lkantor.lenox@gmail.com</t>
+          <t>bethportnow@aol.com</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>06/17/2025</t>
+          <t>06/27/2025</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -5312,19 +5176,18 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>85</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Gall</t>
+          <t>Sahbti</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Naomi</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5334,38 +5197,37 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>8572341559</t>
+          <t>(917) 288-0335</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>anna.furman@gmail.com</t>
+          <t>Auerbachnomi@gmail.com</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>06/17/2025</t>
+          <t>06/27/2025</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>06/25/2026</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>32</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Elkind</t>
+          <t>Abramovitz</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Nily</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5375,17 +5237,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>(617)480-3953</t>
+          <t>(617) 803-6802</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>stephanie.elkind@gmail.com</t>
+          <t>nilyab@gmail.com</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>06/17/2025</t>
+          <t>06/26/2025</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5394,19 +5256,18 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>78</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Venkatathri</t>
+          <t>Nest</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Kruthika</t>
+          <t>Lindsey</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5416,38 +5277,37 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>(213)400-2508</t>
+          <t>(949) 344-5239</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>vkruthika@gmail.com</t>
+          <t>linzg22@gmail.com</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>06/16/2025</t>
+          <t>06/25/2025</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/04/2026</t>
+          <t>05/27/2026</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>6</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Pogorelec</t>
+          <t>Yurchenko</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>Olga</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5457,38 +5317,37 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>(617) 697-4318</t>
+          <t>(617) 699-7912</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>aspogorelec@yahoo.com</t>
+          <t>Ozilberberg@yahoo.com</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>06/16/2025</t>
+          <t>06/24/2025</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/18/2026</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>27</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Elworthy</t>
+          <t>Sung</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Alison</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5498,17 +5357,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>5086549826</t>
+          <t>4158234624</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>alison.elworthy@gmail.com</t>
+          <t>alisonbarbersung@gmail.com</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>06/13/2025</t>
+          <t>06/24/2025</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5517,19 +5376,18 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>23</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Mirafzali</t>
+          <t>Kantor</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sherry</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5539,17 +5397,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>6177945690</t>
+          <t>(413) 441-7007</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>sherrymirafzali@hotmail.com</t>
+          <t>lkantor.lenox@gmail.com</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>06/17/2025</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5558,19 +5416,18 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>58</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Goli</t>
+          <t>Gall</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5580,17 +5437,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>(617) 584-8639</t>
+          <t>8572341559</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ariana_goli@bisboston.org</t>
+          <t>anna.furman@gmail.com</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>06/17/2025</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5599,19 +5456,18 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>16</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Darbeloff</t>
+          <t>Elkind</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5621,38 +5477,37 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>(617) 417-7183</t>
+          <t>(617)480-3953</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>sofiadarb@icloud.com</t>
+          <t>stephanie.elkind@gmail.com</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>06/17/2025</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/18/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>6</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Henderson</t>
+          <t>Venkatathri</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lauren Nicole</t>
+          <t>Kruthika</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5660,32 +5515,39 @@
           <t>Current client</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>(213)400-2508</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>vkruthika@gmail.com</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>06/09/2025</t>
+          <t>06/16/2025</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/04/2025</t>
+          <t>06/04/2026</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>32</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Livshits</t>
+          <t>Elworthy</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Marina</t>
+          <t>Alison</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5695,17 +5557,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>(617) 331-7203</t>
+          <t>5086549826</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ml.psyd@gmail.com</t>
+          <t>alison.elworthy@gmail.com</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>06/07/2025</t>
+          <t>06/13/2025</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5714,19 +5576,18 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>24</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Mirafzali</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Marilyn</t>
+          <t>Sherry</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5736,17 +5597,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>6177550282</t>
+          <t>6177945690</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>marilynparker2@me.com</t>
+          <t>sherrymirafzali@hotmail.com</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>06/03/2025</t>
+          <t>06/12/2025</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5755,19 +5616,18 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>30</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Bullard</t>
+          <t>Goli</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5777,38 +5637,37 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>6179907653</t>
+          <t>(617) 584-8639</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>samantha.colton7@gmail.com</t>
+          <t>ariana_goli@bisboston.org</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>06/02/2025</t>
+          <t>06/12/2025</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/25/2025</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>28</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Tomb</t>
+          <t>Darbeloff</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Joelle</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5818,79 +5677,69 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>(617) 515-7878</t>
+          <t>(617) 417-7183</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>joelle.tomb@gmail.com</t>
+          <t>sofiadarb@icloud.com</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>05/31/2025</t>
+          <t>06/12/2025</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/18/2026</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>49</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Gurevich</t>
+          <t>Henderson</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Mia</t>
+          <t>Lauren Nicole</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Current client</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>(617) 477-7634</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>miakgurevich@gmail.com</t>
-        </is>
-      </c>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>05/23/2025</t>
+          <t>06/09/2025</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>08/04/2025</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>11</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Christy</t>
+          <t>Marilyn</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5900,38 +5749,37 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>7817894009</t>
+          <t>6177550282</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>christyplotner@yahoo.com</t>
+          <t>marilynparker2@me.com</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>05/21/2025</t>
+          <t>06/03/2025</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>05/18/2026</t>
+          <t>05/05/2026</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>19</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Duarte</t>
+          <t>Bullard</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5941,38 +5789,37 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>(617)953-6786</t>
+          <t>6179907653</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>anna1duarte@gmail.com</t>
+          <t>samantha.colton7@gmail.com</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>05/21/2025</t>
+          <t>06/02/2025</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>05/08/2026</t>
+          <t>08/25/2025</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>138</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ramiel</t>
+          <t>Tomb</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Irina</t>
+          <t>Joelle</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5982,13 +5829,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>6176590146</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+          <t>(617) 515-7878</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>joelle.tomb@gmail.com</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>05/19/2025</t>
+          <t>05/31/2025</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5997,19 +5848,18 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Vallila</t>
+          <t>Gurevich</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kristine</t>
+          <t>Mia</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6019,17 +5869,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>(617) 301-2752</t>
+          <t>(617) 477-7634</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>mykristine@gmail.com</t>
+          <t>miakgurevich@gmail.com</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>05/19/2025</t>
+          <t>05/23/2025</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6038,19 +5888,18 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>27</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Keuchakarian</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Joelle</t>
+          <t>Christy</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6060,65 +5909,179 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>+1 (617) 751-9988</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>7817894009</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>christyplotner@yahoo.com</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>05/15/2025</t>
+          <t>05/21/2025</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>05/05/2026</t>
+          <t>05/18/2026</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>4</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>Duarte</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>(617)953-6786</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>anna1duarte@gmail.com</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>05/21/2025</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>05/08/2026</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Ramiel</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Irina</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>6176590146</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>05/19/2025</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>05/05/2026</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Keuchakarian</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Joelle</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>+1 (617) 751-9988</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>05/15/2025</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>05/05/2026</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>Maor</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Rachel</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Current client</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
         <is>
           <t>(781) 996-8547</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>racheli.maor1@gmail.com</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>05/09/2025</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>05/05/2026</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>05/05/2026</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
         <v>10</v>
       </c>
-      <c r="I141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
